--- a/docs/StructureDefinition-onc-4at-delirium.xlsx
+++ b/docs/StructureDefinition-onc-4at-delirium.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
